--- a/Templates/RevenueReportTemplate.xlsx
+++ b/Templates/RevenueReportTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cuong\ky9\TripWiseAPI\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2889E0-BD36-404B-A0DB-B43B9259DA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9CDE0C-A7C7-4D35-8AA2-F4A288AF2E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23568" yWindow="1152" windowWidth="21600" windowHeight="11328" xr2:uid="{1E1E227E-137A-4678-85DD-67B8900A0CD4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Month</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>STT</t>
+  </si>
+  <si>
+    <t>TotalBookings</t>
+  </si>
+  <si>
+    <t>TotalPlans</t>
+  </si>
+  <si>
+    <t>TotalCancelled</t>
+  </si>
+  <si>
+    <t>CancelledRevenue</t>
   </si>
 </sst>
 </file>
@@ -427,7 +439,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,10 +448,11 @@
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" customWidth="1"/>
     <col min="7" max="7" width="32.140625" customWidth="1"/>
-    <col min="8" max="8" width="39.42578125" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -490,12 +503,24 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
         <v>10</v>
       </c>
     </row>
